--- a/biology/Mycologie/Ganoderma/Ganoderma.xlsx
+++ b/biology/Mycologie/Ganoderma/Ganoderma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ganoderma est un genre de macrochampignons basidiomycètes saprophytes ou pathogènes de la famille des Ganodermataceae.
-Ce genre comprend de nombreuses espèces pathogènes des plantes, responsable notamment de la maladie du pourridié rouge qui affecte les arbres dans les régions tropicales[1].
-Ce genre abrite des espèces ayant des propriétés biochimiques et médicinales[2],[3].
+Ce genre comprend de nombreuses espèces pathogènes des plantes, responsable notamment de la maladie du pourridié rouge qui affecte les arbres dans les régions tropicales.
+Ce genre abrite des espèces ayant des propriétés biochimiques et médicinales,.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon MycoBank                                            (22 novembre 2014)[4] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon MycoBank                                            (22 novembre 2014) : 
 Elfvingia P. Karst., 1889 ;
 Friesia Lázaro Ibiza, 1917 ;
 Ganoderma subgen. Trachyderma Imazeki, 1939.
@@ -547,9 +561,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (13 juillet 2014)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (13 juillet 2014) :
 Ganoderma adspersum
 Ganoderma africanum
 Ganoderma ahmadii
@@ -751,7 +767,7 @@
 Ganoderma xylonoides
 Ganoderma zhenningense
 Ganoderma zonatum
-Selon Index Fungorum                                      (13 juillet 2014)[6] :
+Selon Index Fungorum                                      (13 juillet 2014) :
 Ganoderma adspersum (Schulzer) Donk 1969
 Ganoderma africanum (Lloyd) Doidge 1950
 Ganoderma ahmadii Steyaert 1972
@@ -884,9 +900,11 @@
           <t>Liste des espèces, variétés et non-classés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (13 juillet 2014)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (13 juillet 2014) :
 Ganoderma adspersum
 Ganoderma ahmadii
 Ganoderma annulare
